--- a/analysis/xlsx/2021/2021_성별_매출.xlsx
+++ b/analysis/xlsx/2021/2021_성별_매출.xlsx
@@ -477,15 +477,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1454807000</v>
+        <v>1561282000</v>
       </c>
       <c r="D2" t="n">
-        <v>2230833000</v>
+        <v>2400741000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021년도 남 - 공급가액: 1454807000.0, 예측 공급가액: 2230833000.0
-2021년도 여 - 공급가액: 1583958600.0, 예측 공급가액: 2443321200.0</t>
+          <t>2021년도 남 - 공급가액: 1561282000.0, 예측 공급가액: 2400741000.0
+2021년도 여 - 공급가액: 1477483600.0, 예측 공급가액: 2273413200.0</t>
         </is>
       </c>
     </row>
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1583958600</v>
+        <v>1477483600</v>
       </c>
       <c r="D3" t="n">
-        <v>2443321200</v>
+        <v>2273413200</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
